--- a/output1.xlsx
+++ b/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Warehouse Ankara</t>
+          <t>Warehouse Izmir</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Warehouse Çanakkale</t>
+          <t>Warehouse Ankara</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -511,77 +513,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Warehouse Istanbul</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Warehouse Istanbul</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Warehouse Ankara</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Warehouse Ankara</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
